--- a/database/industries/darou/dekapsul/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/dekapsul/product/quarterly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dekapsul\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE29FF7E-34AA-4D09-8339-ABE8AC9EE8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB6764F-B115-4563-9705-281A1369FC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دکپسول-تولید ژلاتین کپسول ایران</t>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,13 +61,13 @@
     <t>عدد</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>جمع فروش داخلی</t>
   </si>
   <si>
     <t>مقدار فروش خارجی</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>جمع فروش خارجی</t>
@@ -767,46 +767,46 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1715422250</v>
-      </c>
-      <c r="F11" s="11">
         <v>1632643800</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="11">
-        <v>1364693200</v>
+        <v>1630766000</v>
       </c>
       <c r="H11" s="11">
-        <v>1630766000</v>
+        <v>1627185900</v>
       </c>
       <c r="I11" s="11">
-        <v>1627185900</v>
+        <v>1591083500</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>1715422250</v>
+        <v>1632643800</v>
       </c>
       <c r="F12" s="13">
-        <v>1632643800</v>
+        <v>0</v>
       </c>
       <c r="G12" s="13">
-        <v>1364693200</v>
+        <v>1630766000</v>
       </c>
       <c r="H12" s="13">
-        <v>1630766000</v>
+        <v>1627185900</v>
       </c>
       <c r="I12" s="13">
-        <v>1627185900</v>
+        <v>1591083500</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -824,11 +824,11 @@
         <v>12</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="11">
-        <v>0</v>
+      <c r="E14" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
@@ -882,11 +882,11 @@
         <v>12</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11">
-        <v>0</v>
+      <c r="E17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
@@ -929,19 +929,19 @@
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -950,14 +950,14 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="13">
-        <v>0</v>
+      <c r="E20" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
@@ -973,19 +973,19 @@
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>1715422250</v>
+        <v>1632643800</v>
       </c>
       <c r="F21" s="15">
-        <v>1632643800</v>
+        <v>0</v>
       </c>
       <c r="G21" s="15">
-        <v>1364693200</v>
+        <v>1630766000</v>
       </c>
       <c r="H21" s="15">
-        <v>1630766000</v>
+        <v>1627185900</v>
       </c>
       <c r="I21" s="15">
-        <v>1627185900</v>
+        <v>1591083500</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -1071,41 +1071,41 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>839829</v>
-      </c>
-      <c r="F28" s="11">
         <v>1020359</v>
       </c>
+      <c r="F28" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G28" s="11">
-        <v>848430</v>
+        <v>1442520</v>
       </c>
       <c r="H28" s="11">
-        <v>1442520</v>
+        <v>1440442</v>
       </c>
       <c r="I28" s="11">
-        <v>1440442</v>
+        <v>1404910</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>839829</v>
+        <v>1020359</v>
       </c>
       <c r="F29" s="13">
-        <v>1020359</v>
+        <v>0</v>
       </c>
       <c r="G29" s="13">
-        <v>848430</v>
+        <v>1442520</v>
       </c>
       <c r="H29" s="13">
-        <v>1442520</v>
+        <v>1440442</v>
       </c>
       <c r="I29" s="13">
-        <v>1440442</v>
+        <v>1404910</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
@@ -1128,11 +1128,11 @@
         <v>25</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11">
-        <v>0</v>
+      <c r="E31" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" s="11">
         <v>0</v>
@@ -1186,11 +1186,11 @@
         <v>25</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11">
-        <v>0</v>
+      <c r="E34" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" s="11">
         <v>0</v>
@@ -1233,19 +1233,19 @@
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
@@ -1256,14 +1256,14 @@
         <v>25</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13">
-        <v>0</v>
+      <c r="E37" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
       </c>
       <c r="H37" s="13">
         <v>0</v>
@@ -1279,19 +1279,19 @@
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>839829</v>
+        <v>1020359</v>
       </c>
       <c r="F38" s="15">
-        <v>1020359</v>
+        <v>0</v>
       </c>
       <c r="G38" s="15">
-        <v>848430</v>
+        <v>1442520</v>
       </c>
       <c r="H38" s="15">
-        <v>1442520</v>
+        <v>1440442</v>
       </c>
       <c r="I38" s="15">
-        <v>1440442</v>
+        <v>1404910</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
@@ -1377,19 +1377,19 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>490</v>
+        <v>625</v>
       </c>
       <c r="F45" s="11">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G45" s="11">
-        <v>622</v>
+        <v>885</v>
       </c>
       <c r="H45" s="11">
         <v>885</v>
       </c>
       <c r="I45" s="11">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
@@ -1413,19 +1413,19 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
@@ -1449,19 +1449,19 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
@@ -1547,19 +1547,19 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>-442826</v>
+        <v>-438367</v>
       </c>
       <c r="F56" s="11">
-        <v>-438367</v>
+        <v>-381522</v>
       </c>
       <c r="G56" s="11">
-        <v>-381522</v>
+        <v>-549891</v>
       </c>
       <c r="H56" s="11">
-        <v>-549891</v>
+        <v>-476995</v>
       </c>
       <c r="I56" s="11">
-        <v>-476995</v>
+        <v>-614024</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
@@ -1569,19 +1569,19 @@
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>-442826</v>
+        <v>-438367</v>
       </c>
       <c r="F57" s="13">
-        <v>-438367</v>
+        <v>-381522</v>
       </c>
       <c r="G57" s="13">
-        <v>-381522</v>
+        <v>-549891</v>
       </c>
       <c r="H57" s="13">
-        <v>-549891</v>
+        <v>-476995</v>
       </c>
       <c r="I57" s="13">
-        <v>-476995</v>
+        <v>-614024</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
@@ -1604,11 +1604,11 @@
         <v>25</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>15</v>
+      <c r="E59" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="11">
+        <v>0</v>
       </c>
       <c r="G59" s="11">
         <v>0</v>
@@ -1662,11 +1662,11 @@
         <v>25</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11">
-        <v>0</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>15</v>
+      <c r="E62" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0</v>
       </c>
       <c r="G62" s="11">
         <v>0</v>
@@ -1709,19 +1709,19 @@
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
@@ -1732,14 +1732,14 @@
         <v>25</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="13">
-        <v>0</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>15</v>
+      <c r="E65" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0</v>
       </c>
       <c r="H65" s="13">
         <v>0</v>
@@ -1755,19 +1755,19 @@
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15">
-        <v>-442826</v>
+        <v>-438367</v>
       </c>
       <c r="F66" s="15">
-        <v>-438367</v>
+        <v>-381522</v>
       </c>
       <c r="G66" s="15">
-        <v>-381522</v>
+        <v>-549891</v>
       </c>
       <c r="H66" s="15">
-        <v>-549891</v>
+        <v>-476995</v>
       </c>
       <c r="I66" s="15">
-        <v>-476995</v>
+        <v>-614024</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>397001</v>
+        <v>581993</v>
       </c>
       <c r="F73" s="11">
-        <v>581993</v>
+        <v>466908</v>
       </c>
       <c r="G73" s="11">
-        <v>466908</v>
+        <v>892629</v>
       </c>
       <c r="H73" s="11">
-        <v>892629</v>
+        <v>963447</v>
       </c>
       <c r="I73" s="11">
-        <v>963447</v>
+        <v>790886</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
@@ -1875,19 +1875,19 @@
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>397001</v>
+        <v>581993</v>
       </c>
       <c r="F74" s="13">
-        <v>581993</v>
+        <v>466908</v>
       </c>
       <c r="G74" s="13">
-        <v>466908</v>
+        <v>892629</v>
       </c>
       <c r="H74" s="13">
-        <v>892629</v>
+        <v>963447</v>
       </c>
       <c r="I74" s="13">
-        <v>963447</v>
+        <v>790886</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
@@ -1910,11 +1910,11 @@
         <v>25</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11">
-        <v>0</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>15</v>
+      <c r="E76" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="11">
+        <v>0</v>
       </c>
       <c r="G76" s="11">
         <v>0</v>
@@ -1968,11 +1968,11 @@
         <v>25</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11">
-        <v>0</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>15</v>
+      <c r="E79" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="11">
+        <v>0</v>
       </c>
       <c r="G79" s="11">
         <v>0</v>
@@ -2013,19 +2013,19 @@
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
-        <v>397001</v>
+        <v>581993</v>
       </c>
       <c r="F81" s="15">
-        <v>581993</v>
+        <v>466908</v>
       </c>
       <c r="G81" s="15">
-        <v>466908</v>
+        <v>892629</v>
       </c>
       <c r="H81" s="15">
-        <v>892629</v>
+        <v>963447</v>
       </c>
       <c r="I81" s="15">
-        <v>963447</v>
+        <v>790886</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/dekapsul/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/dekapsul/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dekapsul\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB6764F-B115-4563-9705-281A1369FC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3093E4F6-16A8-4C38-B3A3-AFE86793E274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -61,13 +76,13 @@
     <t>عدد</t>
   </si>
   <si>
+    <t>جمع فروش داخلی</t>
+  </si>
+  <si>
+    <t>مقدار فروش خارجی</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>جمع فروش داخلی</t>
-  </si>
-  <si>
-    <t>مقدار فروش خارجی</t>
   </si>
   <si>
     <t>جمع فروش خارجی</t>
@@ -627,16 +642,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I81"/>
+  <dimension ref="B1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,8 +660,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,8 +677,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -669,8 +694,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -679,8 +709,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -691,8 +726,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -703,8 +743,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -713,8 +758,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -735,8 +785,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -745,10 +810,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -757,56 +827,91 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>1650180500</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1625067530</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1380570350</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1554315700</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1715422250</v>
+      </c>
+      <c r="J11" s="11">
         <v>1632643800</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
+        <v>1364693200</v>
+      </c>
+      <c r="L11" s="11">
         <v>1630766000</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>1627185900</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>1591083500</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>1650180500</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1625067530</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1380570350</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1554315700</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1715422250</v>
+      </c>
+      <c r="J12" s="13">
         <v>1632643800</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13">
+        <v>1364693200</v>
+      </c>
+      <c r="L12" s="13">
         <v>1630766000</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>1627185900</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>1591083500</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -815,34 +920,54 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>13</v>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
       </c>
       <c r="G14" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="11">
-        <v>0</v>
+      <c r="H14" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I14" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -861,10 +986,25 @@
       <c r="I15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -873,34 +1013,54 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>13</v>
+      <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
       </c>
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
+      <c r="H17" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -919,76 +1079,136 @@
       <c r="I18" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>13</v>
+      <c r="E19" s="15">
+        <v>-850000</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>-1594000</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
       </c>
-      <c r="H20" s="13">
-        <v>0</v>
+      <c r="H20" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="I20" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
+        <v>1649330500</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1625067530</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1378976350</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1554315700</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1715422250</v>
+      </c>
+      <c r="J21" s="15">
         <v>1632643800</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="K21" s="15">
+        <v>1364693200</v>
+      </c>
+      <c r="L21" s="15">
         <v>1630766000</v>
       </c>
-      <c r="H21" s="15">
+      <c r="M21" s="15">
         <v>1627185900</v>
       </c>
-      <c r="I21" s="15">
+      <c r="N21" s="15">
         <v>1591083500</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -997,8 +1217,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1007,8 +1232,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1017,10 +1247,15 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1039,8 +1274,23 @@
       <c r="I25" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1049,10 +1299,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1061,56 +1316,91 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
+        <v>408187</v>
+      </c>
+      <c r="F28" s="11">
+        <v>608479</v>
+      </c>
+      <c r="G28" s="11">
+        <v>521243</v>
+      </c>
+      <c r="H28" s="11">
+        <v>748084</v>
+      </c>
+      <c r="I28" s="11">
+        <v>839829</v>
+      </c>
+      <c r="J28" s="11">
         <v>1020359</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="11">
+      <c r="K28" s="11">
+        <v>848430</v>
+      </c>
+      <c r="L28" s="11">
         <v>1442520</v>
       </c>
-      <c r="H28" s="11">
+      <c r="M28" s="11">
         <v>1440442</v>
       </c>
-      <c r="I28" s="11">
+      <c r="N28" s="11">
         <v>1404910</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
+        <v>408187</v>
+      </c>
+      <c r="F29" s="13">
+        <v>608479</v>
+      </c>
+      <c r="G29" s="13">
+        <v>521243</v>
+      </c>
+      <c r="H29" s="13">
+        <v>748084</v>
+      </c>
+      <c r="I29" s="13">
+        <v>839829</v>
+      </c>
+      <c r="J29" s="13">
         <v>1020359</v>
       </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="K29" s="13">
+        <v>848430</v>
+      </c>
+      <c r="L29" s="13">
         <v>1442520</v>
       </c>
-      <c r="H29" s="13">
+      <c r="M29" s="13">
         <v>1440442</v>
       </c>
-      <c r="I29" s="13">
+      <c r="N29" s="13">
         <v>1404910</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1119,34 +1409,54 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>13</v>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
       </c>
       <c r="G31" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="11">
-        <v>0</v>
+      <c r="H31" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I31" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1165,10 +1475,25 @@
       <c r="I32" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0</v>
+      </c>
+      <c r="N32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1177,34 +1502,54 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>13</v>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
       </c>
       <c r="G34" s="11">
         <v>0</v>
       </c>
-      <c r="H34" s="11">
-        <v>0</v>
+      <c r="H34" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1223,78 +1568,138 @@
       <c r="I35" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <v>0</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13">
+        <v>0</v>
+      </c>
+      <c r="N35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>13</v>
+      <c r="E36" s="15">
+        <v>-132</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <v>-259</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>13</v>
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
       </c>
       <c r="G37" s="13">
         <v>0</v>
       </c>
-      <c r="H37" s="13">
-        <v>0</v>
+      <c r="H37" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="13">
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
+        <v>408055</v>
+      </c>
+      <c r="F38" s="15">
+        <v>608479</v>
+      </c>
+      <c r="G38" s="15">
+        <v>520984</v>
+      </c>
+      <c r="H38" s="15">
+        <v>748084</v>
+      </c>
+      <c r="I38" s="15">
+        <v>839829</v>
+      </c>
+      <c r="J38" s="15">
         <v>1020359</v>
       </c>
-      <c r="F38" s="15">
-        <v>0</v>
-      </c>
-      <c r="G38" s="15">
+      <c r="K38" s="15">
+        <v>848430</v>
+      </c>
+      <c r="L38" s="15">
         <v>1442520</v>
       </c>
-      <c r="H38" s="15">
+      <c r="M38" s="15">
         <v>1440442</v>
       </c>
-      <c r="I38" s="15">
+      <c r="N38" s="15">
         <v>1404910</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1303,8 +1708,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1313,8 +1723,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1323,10 +1738,15 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1345,8 +1765,23 @@
       <c r="I42" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1355,10 +1790,15 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -1367,34 +1807,54 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>247</v>
+      </c>
+      <c r="F45" s="11">
+        <v>375</v>
+      </c>
+      <c r="G45" s="11">
+        <v>378</v>
+      </c>
+      <c r="H45" s="11">
+        <v>481</v>
+      </c>
+      <c r="I45" s="11">
+        <v>490</v>
+      </c>
+      <c r="J45" s="11">
         <v>625</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>622</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>885</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>885</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>883</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1403,34 +1863,54 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1439,32 +1919,52 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1473,8 +1973,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1483,8 +1988,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1493,10 +2003,15 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1515,8 +2030,23 @@
       <c r="I53" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1525,10 +2055,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -1537,56 +2072,91 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>-438367</v>
+        <v>-232834</v>
       </c>
       <c r="F56" s="11">
+        <v>-259171</v>
+      </c>
+      <c r="G56" s="11">
+        <v>-121304</v>
+      </c>
+      <c r="H56" s="11">
+        <v>-357694</v>
+      </c>
+      <c r="I56" s="11">
+        <v>-442826</v>
+      </c>
+      <c r="J56" s="11">
+        <v>-1238887</v>
+      </c>
+      <c r="K56" s="11">
         <v>-381522</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>-549891</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>-476995</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>-614024</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>-438367</v>
+        <v>-232834</v>
       </c>
       <c r="F57" s="13">
+        <v>-259171</v>
+      </c>
+      <c r="G57" s="13">
+        <v>-121304</v>
+      </c>
+      <c r="H57" s="13">
+        <v>-357694</v>
+      </c>
+      <c r="I57" s="13">
+        <v>-442826</v>
+      </c>
+      <c r="J57" s="13">
+        <v>-1238887</v>
+      </c>
+      <c r="K57" s="13">
         <v>-381522</v>
       </c>
-      <c r="G57" s="13">
+      <c r="L57" s="13">
         <v>-549891</v>
       </c>
-      <c r="H57" s="13">
+      <c r="M57" s="13">
         <v>-476995</v>
       </c>
-      <c r="I57" s="13">
+      <c r="N57" s="13">
         <v>-614024</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -1595,17 +2165,22 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>13</v>
+      <c r="E59" s="11">
+        <v>0</v>
       </c>
       <c r="F59" s="11">
         <v>0</v>
@@ -1613,16 +2188,31 @@
       <c r="G59" s="11">
         <v>0</v>
       </c>
-      <c r="H59" s="11">
-        <v>0</v>
+      <c r="H59" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I59" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="11">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11">
+        <v>0</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -1641,10 +2231,25 @@
       <c r="I60" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="13">
+        <v>0</v>
+      </c>
+      <c r="K60" s="13">
+        <v>0</v>
+      </c>
+      <c r="L60" s="13">
+        <v>0</v>
+      </c>
+      <c r="M60" s="13">
+        <v>0</v>
+      </c>
+      <c r="N60" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -1653,17 +2258,22 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>13</v>
+      <c r="E62" s="11">
+        <v>0</v>
       </c>
       <c r="F62" s="11">
         <v>0</v>
@@ -1671,16 +2281,31 @@
       <c r="G62" s="11">
         <v>0</v>
       </c>
-      <c r="H62" s="11">
-        <v>0</v>
+      <c r="H62" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I62" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="11">
+        <v>0</v>
+      </c>
+      <c r="K62" s="11">
+        <v>0</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0</v>
+      </c>
+      <c r="N62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -1699,41 +2324,71 @@
       <c r="I63" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="13">
+        <v>0</v>
+      </c>
+      <c r="K63" s="13">
+        <v>0</v>
+      </c>
+      <c r="L63" s="13">
+        <v>0</v>
+      </c>
+      <c r="M63" s="13">
+        <v>0</v>
+      </c>
+      <c r="N63" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D64" s="15"/>
-      <c r="E64" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>13</v>
+      <c r="E64" s="15">
+        <v>0</v>
+      </c>
+      <c r="F64" s="15">
+        <v>110</v>
+      </c>
+      <c r="G64" s="15">
+        <v>186</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
-        <v>13</v>
+      <c r="E65" s="13">
+        <v>0</v>
       </c>
       <c r="F65" s="13">
         <v>0</v>
@@ -1741,36 +2396,66 @@
       <c r="G65" s="13">
         <v>0</v>
       </c>
-      <c r="H65" s="13">
-        <v>0</v>
+      <c r="H65" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="I65" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="13">
+        <v>0</v>
+      </c>
+      <c r="K65" s="13">
+        <v>0</v>
+      </c>
+      <c r="L65" s="13">
+        <v>0</v>
+      </c>
+      <c r="M65" s="13">
+        <v>0</v>
+      </c>
+      <c r="N65" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15">
-        <v>-438367</v>
+        <v>-232834</v>
       </c>
       <c r="F66" s="15">
+        <v>-259061</v>
+      </c>
+      <c r="G66" s="15">
+        <v>-121118</v>
+      </c>
+      <c r="H66" s="15">
+        <v>-357694</v>
+      </c>
+      <c r="I66" s="15">
+        <v>-442826</v>
+      </c>
+      <c r="J66" s="15">
+        <v>-1238887</v>
+      </c>
+      <c r="K66" s="15">
         <v>-381522</v>
       </c>
-      <c r="G66" s="15">
+      <c r="L66" s="15">
         <v>-549891</v>
       </c>
-      <c r="H66" s="15">
+      <c r="M66" s="15">
         <v>-476995</v>
       </c>
-      <c r="I66" s="15">
+      <c r="N66" s="15">
         <v>-614024</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1779,8 +2464,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1789,8 +2479,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1799,10 +2494,15 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -1821,8 +2521,23 @@
       <c r="I70" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1831,10 +2546,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -1843,56 +2563,91 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>581993</v>
+        <v>175353</v>
       </c>
       <c r="F73" s="11">
+        <v>349175</v>
+      </c>
+      <c r="G73" s="11">
+        <v>399939</v>
+      </c>
+      <c r="H73" s="11">
+        <v>390390</v>
+      </c>
+      <c r="I73" s="11">
+        <v>397001</v>
+      </c>
+      <c r="J73" s="11">
+        <v>1369384</v>
+      </c>
+      <c r="K73" s="11">
         <v>466908</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>892629</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>963447</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>790886</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>581993</v>
+        <v>175353</v>
       </c>
       <c r="F74" s="13">
+        <v>349175</v>
+      </c>
+      <c r="G74" s="13">
+        <v>399939</v>
+      </c>
+      <c r="H74" s="13">
+        <v>390390</v>
+      </c>
+      <c r="I74" s="13">
+        <v>397001</v>
+      </c>
+      <c r="J74" s="13">
+        <v>1369384</v>
+      </c>
+      <c r="K74" s="13">
         <v>466908</v>
       </c>
-      <c r="G74" s="13">
+      <c r="L74" s="13">
         <v>892629</v>
       </c>
-      <c r="H74" s="13">
+      <c r="M74" s="13">
         <v>963447</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>790886</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -1901,17 +2656,22 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
-        <v>13</v>
+      <c r="E76" s="11">
+        <v>0</v>
       </c>
       <c r="F76" s="11">
         <v>0</v>
@@ -1919,16 +2679,31 @@
       <c r="G76" s="11">
         <v>0</v>
       </c>
-      <c r="H76" s="11">
-        <v>0</v>
+      <c r="H76" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I76" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="11">
+        <v>0</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0</v>
+      </c>
+      <c r="L76" s="11">
+        <v>0</v>
+      </c>
+      <c r="M76" s="11">
+        <v>0</v>
+      </c>
+      <c r="N76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -1947,10 +2722,25 @@
       <c r="I77" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="13">
+        <v>0</v>
+      </c>
+      <c r="K77" s="13">
+        <v>0</v>
+      </c>
+      <c r="L77" s="13">
+        <v>0</v>
+      </c>
+      <c r="M77" s="13">
+        <v>0</v>
+      </c>
+      <c r="N77" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -1959,17 +2749,22 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>13</v>
+      <c r="E79" s="11">
+        <v>0</v>
       </c>
       <c r="F79" s="11">
         <v>0</v>
@@ -1977,16 +2772,31 @@
       <c r="G79" s="11">
         <v>0</v>
       </c>
-      <c r="H79" s="11">
-        <v>0</v>
+      <c r="H79" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="I79" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="11">
+        <v>0</v>
+      </c>
+      <c r="K79" s="11">
+        <v>0</v>
+      </c>
+      <c r="L79" s="11">
+        <v>0</v>
+      </c>
+      <c r="M79" s="11">
+        <v>0</v>
+      </c>
+      <c r="N79" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -2005,26 +2815,56 @@
       <c r="I80" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="13">
+        <v>0</v>
+      </c>
+      <c r="K80" s="13">
+        <v>0</v>
+      </c>
+      <c r="L80" s="13">
+        <v>0</v>
+      </c>
+      <c r="M80" s="13">
+        <v>0</v>
+      </c>
+      <c r="N80" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
-        <v>581993</v>
+        <v>175353</v>
       </c>
       <c r="F81" s="15">
+        <v>349175</v>
+      </c>
+      <c r="G81" s="15">
+        <v>399939</v>
+      </c>
+      <c r="H81" s="15">
+        <v>390390</v>
+      </c>
+      <c r="I81" s="15">
+        <v>397001</v>
+      </c>
+      <c r="J81" s="15">
+        <v>1369384</v>
+      </c>
+      <c r="K81" s="15">
         <v>466908</v>
       </c>
-      <c r="G81" s="15">
+      <c r="L81" s="15">
         <v>892629</v>
       </c>
-      <c r="H81" s="15">
+      <c r="M81" s="15">
         <v>963447</v>
       </c>
-      <c r="I81" s="15">
+      <c r="N81" s="15">
         <v>790886</v>
       </c>
     </row>

--- a/database/industries/darou/dekapsul/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/dekapsul/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3093E4F6-16A8-4C38-B3A3-AFE86793E274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E994BC47-9022-461C-9C9A-F705D317A5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="52">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -646,12 +646,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -666,7 +666,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -700,7 +700,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -715,7 +715,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -749,7 +749,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -764,7 +764,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -816,7 +816,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -842,74 +842,74 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1650180500</v>
+        <v>1625067530</v>
       </c>
       <c r="F11" s="11">
-        <v>1625067530</v>
+        <v>1380570350</v>
       </c>
       <c r="G11" s="11">
-        <v>1380570350</v>
+        <v>1554315700</v>
       </c>
       <c r="H11" s="11">
-        <v>1554315700</v>
+        <v>1715422250</v>
       </c>
       <c r="I11" s="11">
-        <v>1715422250</v>
+        <v>1632643800</v>
       </c>
       <c r="J11" s="11">
-        <v>1632643800</v>
+        <v>1364693200</v>
       </c>
       <c r="K11" s="11">
-        <v>1364693200</v>
+        <v>1630766000</v>
       </c>
       <c r="L11" s="11">
-        <v>1630766000</v>
+        <v>1627185900</v>
       </c>
       <c r="M11" s="11">
-        <v>1627185900</v>
+        <v>1591083500</v>
       </c>
       <c r="N11" s="11">
-        <v>1591083500</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1384813600</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>1650180500</v>
+        <v>1625067530</v>
       </c>
       <c r="F12" s="13">
-        <v>1625067530</v>
+        <v>1380570350</v>
       </c>
       <c r="G12" s="13">
-        <v>1380570350</v>
+        <v>1554315700</v>
       </c>
       <c r="H12" s="13">
-        <v>1554315700</v>
+        <v>1715422250</v>
       </c>
       <c r="I12" s="13">
-        <v>1715422250</v>
+        <v>1632643800</v>
       </c>
       <c r="J12" s="13">
-        <v>1632643800</v>
+        <v>1364693200</v>
       </c>
       <c r="K12" s="13">
-        <v>1364693200</v>
+        <v>1630766000</v>
       </c>
       <c r="L12" s="13">
-        <v>1630766000</v>
+        <v>1627185900</v>
       </c>
       <c r="M12" s="13">
-        <v>1627185900</v>
+        <v>1591083500</v>
       </c>
       <c r="N12" s="13">
-        <v>1591083500</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1384813600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
@@ -940,11 +940,11 @@
       <c r="F14" s="11">
         <v>0</v>
       </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>20</v>
+      <c r="G14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>21</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1033,11 +1033,11 @@
       <c r="F17" s="11">
         <v>0</v>
       </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>20</v>
+      <c r="G17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
@@ -1104,14 +1104,14 @@
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15">
-        <v>-850000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="15">
         <v>-1594000</v>
       </c>
+      <c r="G19" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="H19" s="15" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>26</v>
       </c>
@@ -1146,11 +1146,11 @@
       <c r="F20" s="13">
         <v>0</v>
       </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>20</v>
+      <c r="G20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
       </c>
       <c r="I20" s="13">
         <v>0</v>
@@ -1171,44 +1171,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>1649330500</v>
+        <v>1625067530</v>
       </c>
       <c r="F21" s="15">
-        <v>1625067530</v>
+        <v>1378976350</v>
       </c>
       <c r="G21" s="15">
-        <v>1378976350</v>
+        <v>1554315700</v>
       </c>
       <c r="H21" s="15">
-        <v>1554315700</v>
+        <v>1715422250</v>
       </c>
       <c r="I21" s="15">
-        <v>1715422250</v>
+        <v>1632643800</v>
       </c>
       <c r="J21" s="15">
-        <v>1632643800</v>
+        <v>1364693200</v>
       </c>
       <c r="K21" s="15">
-        <v>1364693200</v>
+        <v>1630766000</v>
       </c>
       <c r="L21" s="15">
-        <v>1630766000</v>
+        <v>1627185900</v>
       </c>
       <c r="M21" s="15">
-        <v>1627185900</v>
+        <v>1591083500</v>
       </c>
       <c r="N21" s="15">
-        <v>1591083500</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1384813600</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1223,7 +1223,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1238,7 +1238,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1253,7 +1253,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>28</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1305,7 +1305,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>29</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>16</v>
       </c>
@@ -1331,74 +1331,74 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>408187</v>
+        <v>608479</v>
       </c>
       <c r="F28" s="11">
-        <v>608479</v>
+        <v>521243</v>
       </c>
       <c r="G28" s="11">
-        <v>521243</v>
+        <v>748084</v>
       </c>
       <c r="H28" s="11">
-        <v>748084</v>
+        <v>839829</v>
       </c>
       <c r="I28" s="11">
-        <v>839829</v>
+        <v>1020359</v>
       </c>
       <c r="J28" s="11">
-        <v>1020359</v>
+        <v>848430</v>
       </c>
       <c r="K28" s="11">
-        <v>848430</v>
+        <v>1442520</v>
       </c>
       <c r="L28" s="11">
-        <v>1442520</v>
+        <v>1440442</v>
       </c>
       <c r="M28" s="11">
-        <v>1440442</v>
+        <v>1404910</v>
       </c>
       <c r="N28" s="11">
-        <v>1404910</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1228423</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13">
-        <v>408187</v>
+        <v>608479</v>
       </c>
       <c r="F29" s="13">
-        <v>608479</v>
+        <v>521243</v>
       </c>
       <c r="G29" s="13">
-        <v>521243</v>
+        <v>748084</v>
       </c>
       <c r="H29" s="13">
-        <v>748084</v>
+        <v>839829</v>
       </c>
       <c r="I29" s="13">
-        <v>839829</v>
+        <v>1020359</v>
       </c>
       <c r="J29" s="13">
-        <v>1020359</v>
+        <v>848430</v>
       </c>
       <c r="K29" s="13">
-        <v>848430</v>
+        <v>1442520</v>
       </c>
       <c r="L29" s="13">
-        <v>1442520</v>
+        <v>1440442</v>
       </c>
       <c r="M29" s="13">
-        <v>1440442</v>
+        <v>1404910</v>
       </c>
       <c r="N29" s="13">
-        <v>1404910</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1228423</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>16</v>
       </c>
@@ -1429,11 +1429,11 @@
       <c r="F31" s="11">
         <v>0</v>
       </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>20</v>
+      <c r="G31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
@@ -1522,11 +1522,11 @@
       <c r="F34" s="11">
         <v>0</v>
       </c>
-      <c r="G34" s="11">
-        <v>0</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>20</v>
+      <c r="G34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>23</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>24</v>
       </c>
@@ -1593,14 +1593,14 @@
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15">
-        <v>-132</v>
+        <v>0</v>
       </c>
       <c r="F36" s="15">
-        <v>0</v>
-      </c>
-      <c r="G36" s="15">
         <v>-259</v>
       </c>
+      <c r="G36" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="H36" s="15" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>26</v>
       </c>
@@ -1637,11 +1637,11 @@
       <c r="F37" s="13">
         <v>0</v>
       </c>
-      <c r="G37" s="13">
-        <v>0</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>20</v>
+      <c r="G37" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
@@ -1662,44 +1662,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>408055</v>
+        <v>608479</v>
       </c>
       <c r="F38" s="15">
-        <v>608479</v>
+        <v>520984</v>
       </c>
       <c r="G38" s="15">
-        <v>520984</v>
+        <v>748084</v>
       </c>
       <c r="H38" s="15">
-        <v>748084</v>
+        <v>839829</v>
       </c>
       <c r="I38" s="15">
-        <v>839829</v>
+        <v>1020359</v>
       </c>
       <c r="J38" s="15">
-        <v>1020359</v>
+        <v>848430</v>
       </c>
       <c r="K38" s="15">
-        <v>848430</v>
+        <v>1442520</v>
       </c>
       <c r="L38" s="15">
-        <v>1442520</v>
+        <v>1440442</v>
       </c>
       <c r="M38" s="15">
-        <v>1440442</v>
+        <v>1404910</v>
       </c>
       <c r="N38" s="15">
-        <v>1404910</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1228423</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1714,7 +1714,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1729,7 +1729,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1744,7 +1744,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>33</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1796,7 +1796,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>34</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>16</v>
       </c>
@@ -1822,37 +1822,37 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>247</v>
+        <v>375</v>
       </c>
       <c r="F45" s="11">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G45" s="11">
-        <v>378</v>
+        <v>481</v>
       </c>
       <c r="H45" s="11">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="I45" s="11">
-        <v>490</v>
+        <v>625</v>
       </c>
       <c r="J45" s="11">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K45" s="11">
-        <v>622</v>
+        <v>885</v>
       </c>
       <c r="L45" s="11">
         <v>885</v>
       </c>
       <c r="M45" s="11">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="N45" s="11">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>36</v>
       </c>
@@ -1869,7 +1869,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1979,7 +1979,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1994,7 +1994,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2009,7 +2009,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>38</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2061,7 +2061,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>39</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>16</v>
       </c>
@@ -2087,74 +2087,74 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>-232834</v>
+        <v>-259171</v>
       </c>
       <c r="F56" s="11">
-        <v>-259171</v>
+        <v>-121304</v>
       </c>
       <c r="G56" s="11">
-        <v>-121304</v>
+        <v>-357694</v>
       </c>
       <c r="H56" s="11">
-        <v>-357694</v>
+        <v>-442826</v>
       </c>
       <c r="I56" s="11">
-        <v>-442826</v>
+        <v>-1238887</v>
       </c>
       <c r="J56" s="11">
-        <v>-1238887</v>
+        <v>-381522</v>
       </c>
       <c r="K56" s="11">
-        <v>-381522</v>
+        <v>-549891</v>
       </c>
       <c r="L56" s="11">
-        <v>-549891</v>
+        <v>-476995</v>
       </c>
       <c r="M56" s="11">
-        <v>-476995</v>
+        <v>-614024</v>
       </c>
       <c r="N56" s="11">
-        <v>-614024</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-429191</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>-232834</v>
+        <v>-259171</v>
       </c>
       <c r="F57" s="13">
-        <v>-259171</v>
+        <v>-121304</v>
       </c>
       <c r="G57" s="13">
-        <v>-121304</v>
+        <v>-357694</v>
       </c>
       <c r="H57" s="13">
-        <v>-357694</v>
+        <v>-442826</v>
       </c>
       <c r="I57" s="13">
-        <v>-442826</v>
+        <v>-1238887</v>
       </c>
       <c r="J57" s="13">
-        <v>-1238887</v>
+        <v>-381522</v>
       </c>
       <c r="K57" s="13">
-        <v>-381522</v>
+        <v>-549891</v>
       </c>
       <c r="L57" s="13">
-        <v>-549891</v>
+        <v>-476995</v>
       </c>
       <c r="M57" s="13">
-        <v>-476995</v>
+        <v>-614024</v>
       </c>
       <c r="N57" s="13">
-        <v>-614024</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-429191</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>41</v>
       </c>
@@ -2171,7 +2171,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -2185,11 +2185,11 @@
       <c r="F59" s="11">
         <v>0</v>
       </c>
-      <c r="G59" s="11">
-        <v>0</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>20</v>
+      <c r="G59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0</v>
       </c>
       <c r="I59" s="11">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>42</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>43</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>16</v>
       </c>
@@ -2278,11 +2278,11 @@
       <c r="F62" s="11">
         <v>0</v>
       </c>
-      <c r="G62" s="11">
-        <v>0</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>20</v>
+      <c r="G62" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0</v>
       </c>
       <c r="I62" s="11">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>44</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>24</v>
       </c>
@@ -2349,14 +2349,14 @@
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F64" s="15">
-        <v>110</v>
-      </c>
-      <c r="G64" s="15">
         <v>186</v>
       </c>
+      <c r="G64" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="H64" s="15" t="s">
         <v>20</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>26</v>
       </c>
@@ -2393,11 +2393,11 @@
       <c r="F65" s="13">
         <v>0</v>
       </c>
-      <c r="G65" s="13">
-        <v>0</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>20</v>
+      <c r="G65" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="13">
+        <v>0</v>
       </c>
       <c r="I65" s="13">
         <v>0</v>
@@ -2418,44 +2418,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15">
-        <v>-232834</v>
+        <v>-259061</v>
       </c>
       <c r="F66" s="15">
-        <v>-259061</v>
+        <v>-121118</v>
       </c>
       <c r="G66" s="15">
-        <v>-121118</v>
+        <v>-357694</v>
       </c>
       <c r="H66" s="15">
-        <v>-357694</v>
+        <v>-442826</v>
       </c>
       <c r="I66" s="15">
-        <v>-442826</v>
+        <v>-1238887</v>
       </c>
       <c r="J66" s="15">
-        <v>-1238887</v>
+        <v>-381522</v>
       </c>
       <c r="K66" s="15">
-        <v>-381522</v>
+        <v>-549891</v>
       </c>
       <c r="L66" s="15">
-        <v>-549891</v>
+        <v>-476995</v>
       </c>
       <c r="M66" s="15">
-        <v>-476995</v>
+        <v>-614024</v>
       </c>
       <c r="N66" s="15">
-        <v>-614024</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-429191</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2470,7 +2470,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2485,7 +2485,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2500,7 +2500,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>45</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2552,7 +2552,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>46</v>
       </c>
@@ -2569,7 +2569,7 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
@@ -2578,74 +2578,74 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>175353</v>
+        <v>349175</v>
       </c>
       <c r="F73" s="11">
-        <v>349175</v>
+        <v>399939</v>
       </c>
       <c r="G73" s="11">
-        <v>399939</v>
+        <v>390390</v>
       </c>
       <c r="H73" s="11">
-        <v>390390</v>
+        <v>397001</v>
       </c>
       <c r="I73" s="11">
-        <v>397001</v>
+        <v>1369384</v>
       </c>
       <c r="J73" s="11">
-        <v>1369384</v>
+        <v>466908</v>
       </c>
       <c r="K73" s="11">
-        <v>466908</v>
+        <v>892629</v>
       </c>
       <c r="L73" s="11">
-        <v>892629</v>
+        <v>963447</v>
       </c>
       <c r="M73" s="11">
-        <v>963447</v>
+        <v>790886</v>
       </c>
       <c r="N73" s="11">
-        <v>790886</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>799232</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>175353</v>
+        <v>349175</v>
       </c>
       <c r="F74" s="13">
-        <v>349175</v>
+        <v>399939</v>
       </c>
       <c r="G74" s="13">
-        <v>399939</v>
+        <v>390390</v>
       </c>
       <c r="H74" s="13">
-        <v>390390</v>
+        <v>397001</v>
       </c>
       <c r="I74" s="13">
-        <v>397001</v>
+        <v>1369384</v>
       </c>
       <c r="J74" s="13">
-        <v>1369384</v>
+        <v>466908</v>
       </c>
       <c r="K74" s="13">
-        <v>466908</v>
+        <v>892629</v>
       </c>
       <c r="L74" s="13">
-        <v>892629</v>
+        <v>963447</v>
       </c>
       <c r="M74" s="13">
-        <v>963447</v>
+        <v>790886</v>
       </c>
       <c r="N74" s="13">
-        <v>790886</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>799232</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>48</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>16</v>
       </c>
@@ -2676,11 +2676,11 @@
       <c r="F76" s="11">
         <v>0</v>
       </c>
-      <c r="G76" s="11">
-        <v>0</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>20</v>
+      <c r="G76" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
       </c>
       <c r="I76" s="11">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>49</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>50</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -2769,11 +2769,11 @@
       <c r="F79" s="11">
         <v>0</v>
       </c>
-      <c r="G79" s="11">
-        <v>0</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>20</v>
+      <c r="G79" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0</v>
       </c>
       <c r="I79" s="11">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>51</v>
       </c>
@@ -2831,41 +2831,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
-        <v>175353</v>
+        <v>349175</v>
       </c>
       <c r="F81" s="15">
-        <v>349175</v>
+        <v>399939</v>
       </c>
       <c r="G81" s="15">
-        <v>399939</v>
+        <v>390390</v>
       </c>
       <c r="H81" s="15">
-        <v>390390</v>
+        <v>397001</v>
       </c>
       <c r="I81" s="15">
-        <v>397001</v>
+        <v>1369384</v>
       </c>
       <c r="J81" s="15">
-        <v>1369384</v>
+        <v>466908</v>
       </c>
       <c r="K81" s="15">
-        <v>466908</v>
+        <v>892629</v>
       </c>
       <c r="L81" s="15">
-        <v>892629</v>
+        <v>963447</v>
       </c>
       <c r="M81" s="15">
-        <v>963447</v>
+        <v>790886</v>
       </c>
       <c r="N81" s="15">
-        <v>790886</v>
+        <v>799232</v>
       </c>
     </row>
   </sheetData>
